--- a/medicine/Handicap/Vie_et_Couleur/Vie_et_Couleur.xlsx
+++ b/medicine/Handicap/Vie_et_Couleur/Vie_et_Couleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vie et Couleur (Vida y color) est un film espagnol réalisé par  Santiago Tabernero (es), sorti en 2005.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le personnage principal du film, qui se déroule en Espagne en 1975, est Fede (Junio Valverde), un garçon de 15 ans, entouré de sa sœur Begoña (Silvia Abascal), insatisfaite de son mariage imminent, de son grand-père (Joan Dalmau), qui ne parle plus avec son meilleur ami depuis la guerre civile, de son amie Ramona (Natalia Abascal), atteinte du syndrome de Down et qui a été violée par son père, et d'un jeune homme, Jovi, qui travaille avec son père et auquel Fede essaie de ressembler.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Vie et Couleur
 Titre original : Vida y color
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Junio Valverde
 Miguel Ángel Silvestre
@@ -625,10 +643,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompense
-Prix du public au Festival de Valladolid[1].
-Nominations
-Pour le Prix Goya du meilleur nouveau réalisateur.</t>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Prix du public au Festival de Valladolid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vie_et_Couleur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vie_et_Couleur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour le Prix Goya du meilleur nouveau réalisateur.</t>
         </is>
       </c>
     </row>
